--- a/va_facility_data_2025-02-20/Southwest VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southwest%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Southwest VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southwest%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re4d1f23319e44158a948c23cf4389698"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re25938b1096d4882b62b9decc15fa214"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8486511a6e4b4096852e89b879ac17b6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R023ef1dae38e4a9a9a66eaa9247b0b98"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ffb7642c8f4419ebd420caa0ba8b97e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R171940ac7a4a4cef9fc2ceb73042710b"/>
   </x:sheets>
 </x:workbook>
 </file>
